--- a/biology/Botanique/Saule_noir/Saule_noir.xlsx
+++ b/biology/Botanique/Saule_noir/Saule_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix nigra
 Le saule noir (Salix nigra) est une espèce de plantes à fleurs de la famille des Salicacées. C'est un arbre vivant en Amérique du Nord.
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille est moyenne (10 à 30 m de haut, exceptionnellement 45 m, son tronc atteint 80 cm de diamètre), c'est l'espèce de saule la plus courante en Amérique du Nord. Son écorce est noir-brunâtre à noirâtre, devenant crevassée sur les vieux arbres, souvent ramifiés dès la souche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille est moyenne (10 à 30 m de haut, exceptionnellement 45 m, son tronc atteint 80 cm de diamètre), c'est l'espèce de saule la plus courante en Amérique du Nord. Son écorce est noir-brunâtre à noirâtre, devenant crevassée sur les vieux arbres, souvent ramifiés dès la souche.
 Les pousses récentes sont minces et de couleur variable de vert à brun, jaune à violet. Elles ressemblent à celles du parent européen Salix fragilis, fragiles à la base, cassant souvent si elles sont pliées brusquement.
 Les bourgeons font 4 mm de long, avec un simple point brun-rougeâtre. Les feuilles sont alternes, longues et fines, de 5 à 15 cm de long et de 0,5 à 2 cm de large, noires, vert brillant sur les deux faces ou avec un vert léger au-dessous, avec une fine marge dentée. Elles sont munies d'un court pétiole et d'une paire de stipules.
 C'est une plante dioïque, avec de petites fleurs vert-jaunâtre à jaunes composant des chatons de 2,5 à 7,5 cm de long et apparaissant au début du printemps, en même temps que les feuilles. 
-Le fruit est une capsule de 5 mm  qui s'ouvre à maturité  pour libérer les nombreuses graines minuscules couvertes d'un léger duvet. Les feuilles virent au jaune avant leur chute[1]. L'espèce peuple typiquement les rives de cours d'eau et les marais[2],[3],[4].
-L'espèce Salix gooddingii (Goodding's willow) est parfois classée comme une variété de Salix nigra : S. nigra var. vallicola Dudley ; cela étend l'aire de distribution à l'ouest de l'Amérique du Nord. Cependant, les deux taxons sont le plus souvent traités comme des espèces différentes[5].
+Le fruit est une capsule de 5 mm  qui s'ouvre à maturité  pour libérer les nombreuses graines minuscules couvertes d'un léger duvet. Les feuilles virent au jaune avant leur chute. L'espèce peuple typiquement les rives de cours d'eau et les marais.
+L'espèce Salix gooddingii (Goodding's willow) est parfois classée comme une variété de Salix nigra : S. nigra var. vallicola Dudley ; cela étend l'aire de distribution à l'ouest de l'Amérique du Nord. Cependant, les deux taxons sont le plus souvent traités comme des espèces différentes.
 </t>
         </is>
       </c>
@@ -550,11 +564,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymie
-Parmi d'autres :
-Salix ambigua Pursh
-Terminologie
-Ne pas confondre le saule noir avec l'espèce eurasiatique appelée en français saule noircissant (Salix myrsinifolia) qui est un arbuste.
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parmi d'autres :
+Salix ambigua Pursh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saule_noir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saule_noir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ne pas confondre le saule noir avec l'espèce eurasiatique appelée en français saule noircissant (Salix myrsinifolia) qui est un arbuste.
 </t>
         </is>
       </c>
